--- a/Design/DataTable/Monster.xlsx
+++ b/Design/DataTable/Monster.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\바탕 화면\plum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0CB85F42-F116-4400-B494-F2A95BD5A4D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF57B4FC-6F20-40C5-917B-D308F8B36202}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{04B8CE6E-1D30-4CB8-AB91-9B3E219364F3}"/>
   </bookViews>
@@ -33,10 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
-  <si>
-    <t>MonsterId</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
   <si>
     <t>Type</t>
   </si>
@@ -44,18 +41,6 @@
     <t>Korean</t>
   </si>
   <si>
-    <t>Hpstat</t>
-  </si>
-  <si>
-    <t>Shieldstat</t>
-  </si>
-  <si>
-    <t>Armorstat</t>
-  </si>
-  <si>
-    <t>Speedstat</t>
-  </si>
-  <si>
     <t>None</t>
   </si>
   <si>
@@ -71,12 +56,6 @@
     <t>Electric</t>
   </si>
   <si>
-    <t>Proper1_1</t>
-  </si>
-  <si>
-    <t>Prper1_2</t>
-  </si>
-  <si>
     <t>int</t>
   </si>
   <si>
@@ -132,6 +111,42 @@
   </si>
   <si>
     <t>곰</t>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Speciality_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Speciality_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shield</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Armor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Speed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -500,101 +515,101 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F41996CA-BBCD-4BE6-9B02-E698DD50FBA1}">
   <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="16.8984375" customWidth="1"/>
+    <col min="13" max="13" width="10.19921875" customWidth="1"/>
+    <col min="14" max="14" width="10.09765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="I1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="J1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="K1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="L1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
       <c r="M1" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="N1" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="I2" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="J2" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="K2" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="L2" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="M2" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N2" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.4">
@@ -602,10 +617,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D3">
         <v>100</v>
@@ -646,10 +661,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D4">
         <v>100</v>
@@ -690,10 +705,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D5">
         <v>100</v>
@@ -734,10 +749,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D6">
         <v>100</v>
@@ -778,10 +793,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D7">
         <v>100</v>
@@ -822,10 +837,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D8">
         <v>100</v>
@@ -866,10 +881,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D9">
         <v>100</v>
@@ -910,10 +925,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D10">
         <v>100</v>
@@ -952,5 +967,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Design/DataTable/Monster.xlsx
+++ b/Design/DataTable/Monster.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\바탕 화면\plum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF57B4FC-6F20-40C5-917B-D308F8B36202}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30FFF5E8-195A-411B-81C8-D581A9F68E66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{04B8CE6E-1D30-4CB8-AB91-9B3E219364F3}"/>
   </bookViews>
@@ -117,10 +117,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Speciality_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -146,6 +142,10 @@
   </si>
   <si>
     <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -515,7 +515,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F41996CA-BBCD-4BE6-9B02-E698DD50FBA1}">
   <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
@@ -526,7 +528,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -535,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" t="s">
         <v>30</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>31</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>32</v>
-      </c>
-      <c r="G1" t="s">
-        <v>33</v>
       </c>
       <c r="H1" t="s">
         <v>2</v>
@@ -562,10 +564,10 @@
         <v>6</v>
       </c>
       <c r="M1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N1" t="s">
         <v>28</v>
-      </c>
-      <c r="N1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.4">
@@ -579,16 +581,16 @@
         <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G2" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
         <v>26</v>

--- a/Design/DataTable/Monster.xlsx
+++ b/Design/DataTable/Monster.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\바탕 화면\plum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30FFF5E8-195A-411B-81C8-D581A9F68E66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DA8577A-5A28-473E-977A-E3844B72444D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{04B8CE6E-1D30-4CB8-AB91-9B3E219364F3}"/>
   </bookViews>
@@ -516,7 +516,7 @@
   <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -631,7 +631,7 @@
         <v>100</v>
       </c>
       <c r="F3">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G3">
         <v>10</v>
@@ -675,7 +675,7 @@
         <v>100</v>
       </c>
       <c r="F4">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G4">
         <v>10</v>
@@ -719,7 +719,7 @@
         <v>100</v>
       </c>
       <c r="F5">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G5">
         <v>10</v>
@@ -763,7 +763,7 @@
         <v>100</v>
       </c>
       <c r="F6">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G6">
         <v>10</v>
@@ -807,7 +807,7 @@
         <v>100</v>
       </c>
       <c r="F7">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G7">
         <v>10</v>
@@ -851,7 +851,7 @@
         <v>100</v>
       </c>
       <c r="F8">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G8">
         <v>10</v>
@@ -895,7 +895,7 @@
         <v>100</v>
       </c>
       <c r="F9">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G9">
         <v>10</v>
@@ -939,7 +939,7 @@
         <v>100</v>
       </c>
       <c r="F10">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G10">
         <v>10</v>

--- a/Design/DataTable/Monster.xlsx
+++ b/Design/DataTable/Monster.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\바탕 화면\plum\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\강민재\Documents\GitHub\PlumTowerDefecne\PlumTowerDefecne\Design\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DA8577A-5A28-473E-977A-E3844B72444D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F392DD97-999F-49D7-8BC7-AA224276BC44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{04B8CE6E-1D30-4CB8-AB91-9B3E219364F3}"/>
   </bookViews>

--- a/Design/DataTable/Monster.xlsx
+++ b/Design/DataTable/Monster.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\강민재\Documents\GitHub\PlumTowerDefecne\PlumTowerDefecne\Design\DataTable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\바탕 화면\plum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F392DD97-999F-49D7-8BC7-AA224276BC44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DA8577A-5A28-473E-977A-E3844B72444D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{04B8CE6E-1D30-4CB8-AB91-9B3E219364F3}"/>
   </bookViews>

--- a/Design/DataTable/Monster.xlsx
+++ b/Design/DataTable/Monster.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\바탕 화면\plum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DA8577A-5A28-473E-977A-E3844B72444D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1702F18A-E146-4228-A748-16CD3DFE6F6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{04B8CE6E-1D30-4CB8-AB91-9B3E219364F3}"/>
   </bookViews>
@@ -192,11 +192,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -516,7 +519,7 @@
   <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -624,17 +627,17 @@
       <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>100</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="2">
         <v>100</v>
       </c>
-      <c r="F3">
-        <v>50</v>
-      </c>
-      <c r="G3">
+      <c r="F3" s="2">
         <v>10</v>
+      </c>
+      <c r="G3" s="2">
+        <v>6</v>
       </c>
       <c r="H3">
         <v>60</v>
@@ -668,17 +671,17 @@
       <c r="C4" t="s">
         <v>13</v>
       </c>
-      <c r="D4">
-        <v>100</v>
-      </c>
-      <c r="E4">
-        <v>100</v>
-      </c>
-      <c r="F4">
-        <v>50</v>
-      </c>
-      <c r="G4">
-        <v>10</v>
+      <c r="D4" s="2">
+        <v>150</v>
+      </c>
+      <c r="E4" s="2">
+        <v>130</v>
+      </c>
+      <c r="F4" s="2">
+        <v>15</v>
+      </c>
+      <c r="G4" s="2">
+        <v>6</v>
       </c>
       <c r="H4">
         <v>50</v>
@@ -712,17 +715,17 @@
       <c r="C5" t="s">
         <v>15</v>
       </c>
-      <c r="D5">
-        <v>100</v>
-      </c>
-      <c r="E5">
-        <v>100</v>
-      </c>
-      <c r="F5">
-        <v>50</v>
-      </c>
-      <c r="G5">
-        <v>10</v>
+      <c r="D5" s="2">
+        <v>220</v>
+      </c>
+      <c r="E5" s="2">
+        <v>150</v>
+      </c>
+      <c r="F5" s="2">
+        <v>20</v>
+      </c>
+      <c r="G5" s="2">
+        <v>6</v>
       </c>
       <c r="H5">
         <v>50</v>
@@ -756,17 +759,17 @@
       <c r="C6" t="s">
         <v>17</v>
       </c>
-      <c r="D6">
-        <v>100</v>
-      </c>
-      <c r="E6">
-        <v>100</v>
-      </c>
-      <c r="F6">
-        <v>50</v>
-      </c>
-      <c r="G6">
-        <v>10</v>
+      <c r="D6" s="2">
+        <v>240</v>
+      </c>
+      <c r="E6" s="2">
+        <v>200</v>
+      </c>
+      <c r="F6" s="2">
+        <v>30</v>
+      </c>
+      <c r="G6" s="2">
+        <v>6</v>
       </c>
       <c r="H6">
         <v>40</v>
@@ -800,17 +803,17 @@
       <c r="C7" t="s">
         <v>19</v>
       </c>
-      <c r="D7">
-        <v>100</v>
-      </c>
-      <c r="E7">
-        <v>100</v>
-      </c>
-      <c r="F7">
-        <v>50</v>
-      </c>
-      <c r="G7">
-        <v>10</v>
+      <c r="D7" s="2">
+        <v>280</v>
+      </c>
+      <c r="E7" s="2">
+        <v>250</v>
+      </c>
+      <c r="F7" s="2">
+        <v>35</v>
+      </c>
+      <c r="G7" s="2">
+        <v>7</v>
       </c>
       <c r="H7">
         <v>20</v>
@@ -844,17 +847,17 @@
       <c r="C8" t="s">
         <v>21</v>
       </c>
-      <c r="D8">
-        <v>100</v>
-      </c>
-      <c r="E8">
-        <v>100</v>
-      </c>
-      <c r="F8">
+      <c r="D8" s="2">
+        <v>340</v>
+      </c>
+      <c r="E8" s="2">
+        <v>310</v>
+      </c>
+      <c r="F8" s="2">
         <v>50</v>
       </c>
-      <c r="G8">
-        <v>10</v>
+      <c r="G8" s="2">
+        <v>7</v>
       </c>
       <c r="H8">
         <v>25</v>
@@ -888,17 +891,17 @@
       <c r="C9" t="s">
         <v>23</v>
       </c>
-      <c r="D9">
-        <v>100</v>
-      </c>
-      <c r="E9">
-        <v>100</v>
-      </c>
-      <c r="F9">
-        <v>50</v>
-      </c>
-      <c r="G9">
-        <v>10</v>
+      <c r="D9" s="2">
+        <v>400</v>
+      </c>
+      <c r="E9" s="2">
+        <v>360</v>
+      </c>
+      <c r="F9" s="2">
+        <v>60</v>
+      </c>
+      <c r="G9" s="2">
+        <v>8</v>
       </c>
       <c r="H9">
         <v>15</v>
@@ -932,17 +935,17 @@
       <c r="C10" t="s">
         <v>25</v>
       </c>
-      <c r="D10">
-        <v>100</v>
-      </c>
-      <c r="E10">
-        <v>100</v>
-      </c>
-      <c r="F10">
-        <v>50</v>
-      </c>
-      <c r="G10">
-        <v>10</v>
+      <c r="D10" s="2">
+        <v>500</v>
+      </c>
+      <c r="E10" s="2">
+        <v>450</v>
+      </c>
+      <c r="F10" s="2">
+        <v>70</v>
+      </c>
+      <c r="G10" s="2">
+        <v>8</v>
       </c>
       <c r="H10">
         <v>0</v>
